--- a/src/Справочник продуктов кодов ГОСБ.xlsx
+++ b/src/Справочник продуктов кодов ГОСБ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mironov1-AM\PycharmProjects\Офис\alexanders_blue_candy\NEW_WORK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Braga101\vol2\SUDR_PCP_BR\Оборудование_ТМЦ\_Artem_\Cards\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="21975" windowHeight="3945" tabRatio="677" activeTab="1"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="21975" windowHeight="3945" tabRatio="677"/>
   </bookViews>
   <sheets>
     <sheet name="продукты" sheetId="1" r:id="rId1"/>
@@ -1270,7 +1270,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1446,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
